--- a/assignments/hw3/ResultsNew.xlsx
+++ b/assignments/hw3/ResultsNew.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\styt-\Documents\GitHub\cs499-fa22\assignments\hw3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF50476-4900-4284-954E-42DC38CD7919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3503E56-9509-489F-9D2D-129F0D9FFBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3953" yWindow="3953" windowWidth="21599" windowHeight="11872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1952,7 +1952,7 @@
         <c:axId val="1219843472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="60"/>
+          <c:max val="180"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4095,8 +4095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
